--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>种类</t>
   </si>
@@ -217,6 +217,26 @@
   </si>
   <si>
     <t>1.2|2.3|3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE|是|假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,10 +915,44 @@
         <v>52</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -255,6 +255,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -603,7 +604,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\go-xlsx-protobuf\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="9750"/>
+    <workbookView windowWidth="14595" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="define" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="consts" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
     <t>种类</t>
   </si>
@@ -59,6 +54,12 @@
     <t>xml数据</t>
   </si>
   <si>
+    <t>CSHARP</t>
+  </si>
+  <si>
+    <t>GOLANG</t>
+  </si>
+  <si>
     <t>struct</t>
   </si>
   <si>
@@ -108,82 +109,52 @@
   </si>
   <si>
     <t>const</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VERSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v.1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX_CONNECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大连接数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UP_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VERSIONS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v.1.0.0|v1.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSHARP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DataTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>EDataType</t>
     </r>
     <r>
@@ -191,60 +162,51 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLANG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CSHARP|GOLANG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.2|2.3|3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Opens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRUE|是|假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,30 +215,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -284,9 +568,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -294,21 +820,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -595,31 +1165,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -656,7 +1226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -670,7 +1240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -678,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -692,295 +1262,492 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B13" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
       <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
       <c r="E14">
         <v>3.1</v>
       </c>
       <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>3.1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14595" windowHeight="9975" activeTab="1"/>
+    <workbookView windowWidth="14595" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="define" sheetId="1" r:id="rId1"/>
@@ -201,12 +201,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +218,106 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,29 +330,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -262,24 +338,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,81 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -375,13 +368,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,31 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,133 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +577,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,17 +640,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,39 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -674,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -820,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="A12:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1532,7 +1525,7 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14595" windowHeight="9975"/>
+    <workbookView windowWidth="14235" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="define" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>种类</t>
   </si>
@@ -141,10 +141,46 @@
     <t>VERSIONS</t>
   </si>
   <si>
+    <t>string[,]?</t>
+  </si>
+  <si>
+    <t>v.1.0.0,v1.1.0</t>
+  </si>
+  <si>
+    <t>DataTypes</t>
+  </si>
+  <si>
+    <t>EDataType[]</t>
+  </si>
+  <si>
+    <t>CSHARP|GOLANG</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>1.2|2.3|3.1</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Opens</t>
+  </si>
+  <si>
+    <t>bool[]</t>
+  </si>
+  <si>
+    <t>TRUE|是|假</t>
+  </si>
+  <si>
+    <t>CONSTS</t>
+  </si>
+  <si>
     <t>v.1.0.0|v1.1.0</t>
-  </si>
-  <si>
-    <t>DataTypes</t>
   </si>
   <si>
     <r>
@@ -168,42 +204,15 @@
       <t>[]</t>
     </r>
   </si>
-  <si>
-    <t>CSHARP|GOLANG</t>
-  </si>
-  <si>
-    <t>Times</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>1.2|2.3|3.1</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Opens</t>
-  </si>
-  <si>
-    <t>bool[]</t>
-  </si>
-  <si>
-    <t>TRUE|是|假</t>
-  </si>
-  <si>
-    <t>CONSTS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -222,6 +231,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -229,17 +283,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +299,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -261,14 +316,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,14 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -298,52 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -358,6 +360,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,13 +377,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,19 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,133 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +568,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,21 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +620,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -620,21 +644,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -667,145 +676,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,8 +1175,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="A12:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1422,10 +1431,10 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1453,13 +1462,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1470,13 +1479,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1487,7 +1496,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
@@ -1504,13 +1513,13 @@
         <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -1584,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1604,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1624,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1633,7 +1642,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1641,7 +1650,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -1658,16 +1667,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1675,16 +1684,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1692,10 +1701,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -1709,16 +1718,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14235" windowHeight="5985"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="define" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t>种类</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>TRUE|是|假</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>int64</t>
   </si>
   <si>
     <t>CONSTS</t>
@@ -210,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -225,7 +231,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,47 +328,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,24 +344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,51 +360,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -377,13 +383,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,121 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,20 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,16 +631,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -652,8 +649,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +665,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -676,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1520,6 +1526,23 @@
       </c>
       <c r="E20" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:5">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1596,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -1593,7 +1616,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1613,7 +1636,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1633,7 +1656,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1642,7 +1665,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1650,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -1667,13 +1690,13 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
@@ -1684,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -1701,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
@@ -1718,7 +1741,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -231,14 +231,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,14 +252,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +273,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -281,11 +312,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,21 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -322,57 +346,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,11 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,17 +607,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +638,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,28 +669,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,130 +694,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1190,7 +1190,7 @@
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>种类</t>
   </si>
@@ -132,58 +132,61 @@
     <t>UP_RATIO</t>
   </si>
   <si>
+    <t>float?Ratio</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>VERSIONS</t>
+  </si>
+  <si>
+    <t>string[,]?</t>
+  </si>
+  <si>
+    <t>v.1.0.0,v1.1.0</t>
+  </si>
+  <si>
+    <t>DataTypes</t>
+  </si>
+  <si>
+    <t>EDataType[]</t>
+  </si>
+  <si>
+    <t>CSHARP|GOLANG</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>1.2|2.3|3.1</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Opens</t>
+  </si>
+  <si>
+    <t>bool[]</t>
+  </si>
+  <si>
+    <t>TRUE|是|假</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>CONSTS</t>
+  </si>
+  <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>概率</t>
-  </si>
-  <si>
-    <t>VERSIONS</t>
-  </si>
-  <si>
-    <t>string[,]?</t>
-  </si>
-  <si>
-    <t>v.1.0.0,v1.1.0</t>
-  </si>
-  <si>
-    <t>DataTypes</t>
-  </si>
-  <si>
-    <t>EDataType[]</t>
-  </si>
-  <si>
-    <t>CSHARP|GOLANG</t>
-  </si>
-  <si>
-    <t>Times</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>1.2|2.3|3.1</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Opens</t>
-  </si>
-  <si>
-    <t>bool[]</t>
-  </si>
-  <si>
-    <t>TRUE|是|假</t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>CONSTS</t>
   </si>
   <si>
     <t>v.1.0.0|v1.1.0</t>
@@ -230,41 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -273,13 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,7 +251,97 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -320,59 +363,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,55 +386,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,127 +554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +595,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -603,6 +615,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,30 +672,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -682,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,7 +1185,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1642,7 +1645,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>3.1</v>
@@ -1665,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1696,7 +1699,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="define" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>种类</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>GOLANG</t>
+  </si>
+  <si>
+    <t>EDataType1</t>
   </si>
   <si>
     <t>struct</t>
@@ -219,15 +222,106 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,24 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,21 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,76 +367,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,103 +389,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,61 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,30 +580,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,41 +594,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,8 +616,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1231,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1247,6 +1250,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -1262,10 +1268,10 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1275,276 +1281,313 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F10" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="E14">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
         <v>3.1</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F16" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D22" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:5">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E21">
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
         <v>10000</v>
       </c>
     </row>
@@ -1596,90 +1639,90 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>3.1</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1690,50 +1733,50 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1741,19 +1784,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/data/define.xlsx
+++ b/data/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="define" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>种类</t>
   </si>
@@ -156,7 +156,7 @@
     <t>EDataType[]</t>
   </si>
   <si>
-    <t>CSHARP|GOLANG</t>
+    <t>CSHARP,GOLANG</t>
   </si>
   <si>
     <t>Times</t>
@@ -165,7 +165,7 @@
     <t>float[]</t>
   </si>
   <si>
-    <t>1.2|2.3|3.1</t>
+    <t>1.2,2.3,3.1</t>
   </si>
   <si>
     <t>Open</t>
@@ -177,13 +177,16 @@
     <t>bool[]</t>
   </si>
   <si>
-    <t>TRUE|是|假</t>
+    <t>TRUE,是,假</t>
   </si>
   <si>
     <t>Waiting</t>
   </si>
   <si>
     <t>int64</t>
+  </si>
+  <si>
+    <t>[MEITUAN]Waiting</t>
   </si>
   <si>
     <t>CONSTS</t>
@@ -216,11 +219,20 @@
       <t>[]</t>
     </r>
   </si>
+  <si>
+    <t>CSHARP|GOLANG</t>
+  </si>
+  <si>
+    <t>1.2|2.3|3.1</t>
+  </si>
+  <si>
+    <t>TRUE|是|假</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -236,34 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -280,6 +264,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -289,41 +312,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,7 +365,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,49 +401,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,121 +539,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,21 +592,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -627,6 +624,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,148 +697,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -840,52 +852,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1185,7 +1197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
@@ -1589,6 +1601,23 @@
       </c>
       <c r="E23">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:5">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1671,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -1662,7 +1691,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1682,13 +1711,13 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>3.1</v>
@@ -1702,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1711,7 +1740,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1719,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -1736,16 +1765,16 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1753,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -1762,7 +1791,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1770,7 +1799,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
@@ -1787,7 +1816,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>51</v>
@@ -1796,7 +1825,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
